--- a/target/test-classes/urunListesi2.xlsx
+++ b/target/test-classes/urunListesi2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/Team153_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6558B026-F283-6B42-9094-3F98D7B0D891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0804179-4730-B240-8446-A5366B329C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="3460" windowWidth="23000" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>urun ismi</t>
   </si>
@@ -57,12 +57,16 @@
   </si>
   <si>
     <t>iphone 15</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -436,44 +440,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>

--- a/target/test-classes/urunListesi2.xlsx
+++ b/target/test-classes/urunListesi2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>urun ismi</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>1.087,91 лв.</t>
+  </si>
+  <si>
+    <t>276,59 лв.</t>
+  </si>
+  <si>
+    <t>1.749,99 лв.</t>
+  </si>
+  <si>
+    <t>769,00 лв.</t>
+  </si>
+  <si>
+    <t>2.159,99 лв.</t>
+  </si>
+  <si>
+    <t>1.530,59 лв.</t>
   </si>
 </sst>
 </file>
@@ -440,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -461,35 +479,77 @@
       <c r="C1" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
